--- a/all_annotated/RH_Q4_2020_2.xlsx
+++ b/all_annotated/RH_Q4_2020_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D496ED1C-F1EA-2043-A487-1A962B4A4C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -228,8 +234,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +298,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,9 +384,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,6 +436,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,14 +629,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -638,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -650,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -670,10 +722,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -682,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -702,10 +754,10 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -714,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -734,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -746,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -766,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -778,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -798,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -810,7 +862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -824,13 +876,13 @@
         <v>51</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -842,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -856,13 +908,13 @@
         <v>51</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -874,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -894,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -906,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -926,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -938,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -958,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -970,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -990,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1002,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1034,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1066,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1098,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1130,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1162,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1182,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1194,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1214,10 +1266,10 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1226,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1246,10 +1298,10 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1258,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1278,10 +1330,10 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1290,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1313,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1322,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1339,22 +1391,22 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1374,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1386,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1406,10 +1458,10 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>2</v>
